--- a/Code/Results/Cases/Case_4_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_145/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.620506404061359</v>
+        <v>4.795003759225949</v>
       </c>
       <c r="C2">
-        <v>2.081439599946123</v>
+        <v>1.450592490471536</v>
       </c>
       <c r="D2">
-        <v>0.2745476593206604</v>
+        <v>0.4824921826647142</v>
       </c>
       <c r="E2">
-        <v>0.05802824565720499</v>
+        <v>0.1340698875187947</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008159921919395227</v>
+        <v>0.002696308362112216</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01083661674922798</v>
+        <v>0.03518418398326428</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.695099542424131</v>
+        <v>1.485175881493774</v>
       </c>
       <c r="N2">
-        <v>4.338908718249257</v>
+        <v>4.461129605684732</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.758540420689599</v>
+        <v>4.627622330456859</v>
       </c>
       <c r="C3">
-        <v>1.805753821610836</v>
+        <v>1.397368962143901</v>
       </c>
       <c r="D3">
-        <v>0.2535092885658941</v>
+        <v>0.4812269856431186</v>
       </c>
       <c r="E3">
-        <v>0.05537046660864142</v>
+        <v>0.1343454290983743</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000832833255497693</v>
+        <v>0.002705597747148588</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01100908261958189</v>
+        <v>0.03532249000028198</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.486712979585292</v>
+        <v>1.448146701223109</v>
       </c>
       <c r="N3">
-        <v>4.081373088860914</v>
+        <v>4.379294358883243</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.250484629060963</v>
+        <v>4.52825048008998</v>
       </c>
       <c r="C4">
-        <v>1.643521981898687</v>
+        <v>1.365745384780325</v>
       </c>
       <c r="D4">
-        <v>0.2413484504044732</v>
+        <v>0.480689273891528</v>
       </c>
       <c r="E4">
-        <v>0.05387048033514397</v>
+        <v>0.1345688355842167</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008432941825737175</v>
+        <v>0.00271158652076592</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01111958526457268</v>
+        <v>0.03541221871037514</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.364221723026873</v>
+        <v>1.426416080122152</v>
       </c>
       <c r="N4">
-        <v>3.929170575162715</v>
+        <v>4.329469525785044</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.047959029794185</v>
+        <v>4.488600355270364</v>
       </c>
       <c r="C5">
-        <v>1.578904960920966</v>
+        <v>1.353120391228799</v>
       </c>
       <c r="D5">
-        <v>0.2365595328482613</v>
+        <v>0.480530062937234</v>
       </c>
       <c r="E5">
-        <v>0.05328888632100615</v>
+        <v>0.1346734897746735</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008475958549733092</v>
+        <v>0.002714098995526167</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01116579259356243</v>
+        <v>0.03544999709572672</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.315473460344151</v>
+        <v>1.41781095423562</v>
       </c>
       <c r="N5">
-        <v>3.868419838995862</v>
+        <v>4.309267987235984</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.014580609961968</v>
+        <v>4.48206719831677</v>
       </c>
       <c r="C6">
-        <v>1.568258262387758</v>
+        <v>1.351039732183096</v>
       </c>
       <c r="D6">
-        <v>0.2357737821011625</v>
+        <v>0.4805072383162212</v>
       </c>
       <c r="E6">
-        <v>0.0531940118503762</v>
+        <v>0.1346916892156536</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008483127104077585</v>
+        <v>0.002714520547908529</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01117353686344558</v>
+        <v>0.03545634356387417</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.307443968015761</v>
+        <v>1.416397122536836</v>
       </c>
       <c r="N6">
-        <v>3.858403344778509</v>
+        <v>4.305919619300852</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.247736026314442</v>
+        <v>4.527712338126889</v>
       </c>
       <c r="C7">
-        <v>1.642644821510032</v>
+        <v>1.365574064143175</v>
       </c>
       <c r="D7">
-        <v>0.2412832189789782</v>
+        <v>0.4806868844212033</v>
       </c>
       <c r="E7">
-        <v>0.05386252090915633</v>
+        <v>0.1345701918892992</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008433520291373841</v>
+        <v>0.002711620113030445</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01112020364550226</v>
+        <v>0.03541272328508871</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.363559806758289</v>
+        <v>1.426299018334149</v>
       </c>
       <c r="N7">
-        <v>3.928346379580518</v>
+        <v>4.329196670689839</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.318368199452607</v>
+        <v>4.73657830582124</v>
       </c>
       <c r="C8">
-        <v>1.984741441653455</v>
+        <v>1.432019635598351</v>
       </c>
       <c r="D8">
-        <v>0.2671211827760516</v>
+        <v>0.4820061768687935</v>
       </c>
       <c r="E8">
-        <v>0.05708218279163546</v>
+        <v>0.1341536273455208</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008217795049273289</v>
+        <v>0.002699452373603709</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01089513754248284</v>
+        <v>0.03523087643617018</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.621981356514965</v>
+        <v>1.472197973030859</v>
       </c>
       <c r="N8">
-        <v>4.2487396391667</v>
+        <v>4.432822883087908</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.631119897587951</v>
+        <v>5.173659256305768</v>
       </c>
       <c r="C9">
-        <v>2.726736900148751</v>
+        <v>1.570872777211321</v>
       </c>
       <c r="D9">
-        <v>0.3250933166197285</v>
+        <v>0.486501578570028</v>
       </c>
       <c r="E9">
-        <v>0.06463557541212239</v>
+        <v>0.1337680673087327</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007799666589208541</v>
+        <v>0.00267783849818392</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01048952261650626</v>
+        <v>0.03491223891863626</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.183346219949371</v>
+        <v>1.570307319424032</v>
       </c>
       <c r="N9">
-        <v>4.935905263934501</v>
+        <v>4.639563630134944</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.54076216309545</v>
+        <v>5.51230353787787</v>
       </c>
       <c r="C10">
-        <v>3.342649811215722</v>
+        <v>1.678362692537519</v>
       </c>
       <c r="D10">
-        <v>0.3744567977631306</v>
+        <v>0.4909843840962651</v>
       </c>
       <c r="E10">
-        <v>0.07128530743426253</v>
+        <v>0.1337494874012144</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007487189621468874</v>
+        <v>0.002663307861652375</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01021220208688067</v>
+        <v>0.03470101781795343</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.649233376288691</v>
+        <v>1.647511893106028</v>
       </c>
       <c r="N10">
-        <v>5.49764618553013</v>
+        <v>4.793872612221605</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.48056453261802</v>
+        <v>5.670338029825984</v>
       </c>
       <c r="C11">
-        <v>3.646894171663405</v>
+        <v>1.728510176648967</v>
       </c>
       <c r="D11">
-        <v>0.399114194934981</v>
+        <v>0.4932838311952281</v>
       </c>
       <c r="E11">
-        <v>0.07465781577847963</v>
+        <v>0.1337989303141001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007341292098132703</v>
+        <v>0.00265698594928799</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01009033998442543</v>
+        <v>0.03460984054731497</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.879146467903468</v>
+        <v>1.683788719261287</v>
       </c>
       <c r="N11">
-        <v>5.772090914159833</v>
+        <v>4.864655525165972</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.84963964467056</v>
+        <v>5.73076813779835</v>
       </c>
       <c r="C12">
-        <v>3.766586728092477</v>
+        <v>1.747684160629262</v>
       </c>
       <c r="D12">
-        <v>0.4088534785683748</v>
+        <v>0.4941923014936833</v>
       </c>
       <c r="E12">
-        <v>0.07599756789758771</v>
+        <v>0.1338260130399505</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007285201231969498</v>
+        <v>0.002654633088966148</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01004480412502051</v>
+        <v>0.03457601556881862</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.969540515122958</v>
+        <v>1.697695409855754</v>
       </c>
       <c r="N12">
-        <v>5.879495355236656</v>
+        <v>4.891548177457878</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.76950813403846</v>
+        <v>5.717727163815994</v>
       </c>
       <c r="C13">
-        <v>3.740589505132732</v>
+        <v>1.743546433772792</v>
       </c>
       <c r="D13">
-        <v>0.4067364034876135</v>
+        <v>0.4939949636062408</v>
       </c>
       <c r="E13">
-        <v>0.07570599475737438</v>
+        <v>0.1338198079166375</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007297324791821587</v>
+        <v>0.00265513799622157</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01005458389629332</v>
+        <v>0.03458326922966037</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.949909858868281</v>
+        <v>1.694692767118909</v>
       </c>
       <c r="N13">
-        <v>5.856194453929447</v>
+        <v>4.885752349383324</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.51064369966502</v>
+        <v>5.675297833207992</v>
       </c>
       <c r="C14">
-        <v>3.656644466734804</v>
+        <v>1.730083913537896</v>
       </c>
       <c r="D14">
-        <v>0.3999068047839671</v>
+        <v>0.4933578138528389</v>
       </c>
       <c r="E14">
-        <v>0.07476669489044241</v>
+        <v>0.1338009906792301</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007336696447474896</v>
+        <v>0.002656791555852989</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01008658147678521</v>
+        <v>0.03460704370234957</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.886511339889125</v>
+        <v>1.68492941646916</v>
       </c>
       <c r="N14">
-        <v>5.78085221659785</v>
+        <v>4.866866197305171</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.3539042113066</v>
+        <v>5.649385335413967</v>
       </c>
       <c r="C15">
-        <v>3.605845384154236</v>
+        <v>1.721861857974659</v>
       </c>
       <c r="D15">
-        <v>0.3957788431638818</v>
+        <v>0.4929724626598642</v>
       </c>
       <c r="E15">
-        <v>0.07419995205119889</v>
+        <v>0.1337905543251594</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007360692318475866</v>
+        <v>0.002657809752975945</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01010626045523466</v>
+        <v>0.03462169754129896</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.848137940448083</v>
+        <v>1.678971245575738</v>
       </c>
       <c r="N15">
-        <v>5.735182506103513</v>
+        <v>4.855309563932735</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.48100770040696</v>
+        <v>5.502056877434143</v>
       </c>
       <c r="C16">
-        <v>3.32333107986392</v>
+        <v>1.675110967261617</v>
       </c>
       <c r="D16">
-        <v>0.3728963971888106</v>
+        <v>0.4908393713149337</v>
       </c>
       <c r="E16">
-        <v>0.07107289574516784</v>
+        <v>0.1337474240938015</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007496625074895103</v>
+        <v>0.002663726784313048</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01022025162796236</v>
+        <v>0.03470707489772096</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.634628347468663</v>
+        <v>1.645164651854401</v>
       </c>
       <c r="N16">
-        <v>5.480150784136583</v>
+        <v>4.78925895892155</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.965562980123536</v>
+        <v>5.412705077388523</v>
       </c>
       <c r="C17">
-        <v>3.156812502021126</v>
+        <v>1.646754071902421</v>
       </c>
       <c r="D17">
-        <v>0.3594756409744946</v>
+        <v>0.48959764359536</v>
       </c>
       <c r="E17">
-        <v>0.06925141987516525</v>
+        <v>0.1337358173504626</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007578866900394177</v>
+        <v>0.002667430262297841</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01029127307111111</v>
+        <v>0.03476070546715881</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.508713745894298</v>
+        <v>1.624723747690794</v>
       </c>
       <c r="N17">
-        <v>5.329011426147019</v>
+        <v>4.748892419392917</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.675563675299259</v>
+        <v>5.36168642819905</v>
       </c>
       <c r="C18">
-        <v>3.063224046887228</v>
+        <v>1.630561293941639</v>
       </c>
       <c r="D18">
-        <v>0.3519572500483719</v>
+        <v>0.4889079066673361</v>
       </c>
       <c r="E18">
-        <v>0.06823552072235017</v>
+        <v>0.1337345886275472</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000762583981956967</v>
+        <v>0.002669587546062109</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01033252672347551</v>
+        <v>0.03479201457549408</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.437927687719338</v>
+        <v>1.613075298456309</v>
       </c>
       <c r="N18">
-        <v>5.243803235971399</v>
+        <v>4.725729641411334</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.578410049321178</v>
+        <v>5.344476258191889</v>
       </c>
       <c r="C19">
-        <v>3.031886335990748</v>
+        <v>1.625098718895686</v>
       </c>
       <c r="D19">
-        <v>0.3494439569031869</v>
+        <v>0.4886785676341248</v>
       </c>
       <c r="E19">
-        <v>0.06789668450045028</v>
+        <v>0.1337351071388184</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007641695087792222</v>
+        <v>0.002670322636827328</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01034656425381009</v>
+        <v>0.03480269480871812</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.414222712486847</v>
+        <v>1.609149893029596</v>
       </c>
       <c r="N19">
-        <v>5.21522958644087</v>
+        <v>4.717896437567703</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.01974461416228</v>
+        <v>5.422177913364976</v>
       </c>
       <c r="C20">
-        <v>3.174305777525205</v>
+        <v>1.649760533491644</v>
       </c>
       <c r="D20">
-        <v>0.3608829773515367</v>
+        <v>0.4897272927101426</v>
       </c>
       <c r="E20">
-        <v>0.06944195182008528</v>
+        <v>0.1337364889029935</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000757014821683097</v>
+        <v>0.002667033214151357</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0102836709872367</v>
+        <v>0.034754948591603</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.521943502486948</v>
+        <v>1.62688845239046</v>
       </c>
       <c r="N20">
-        <v>5.344917346173304</v>
+        <v>4.753183784585644</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.58629193074626</v>
+        <v>5.687744349651211</v>
       </c>
       <c r="C21">
-        <v>3.681169695767096</v>
+        <v>1.734033145845842</v>
       </c>
       <c r="D21">
-        <v>0.4019010918850228</v>
+        <v>0.4935439340005274</v>
       </c>
       <c r="E21">
-        <v>0.07504076794199221</v>
+        <v>0.1338062905911706</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007325157816954504</v>
+        <v>0.002656304752086981</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01007716642961043</v>
+        <v>0.0346000415456178</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.905035461672057</v>
+        <v>1.687792524559967</v>
       </c>
       <c r="N21">
-        <v>5.802880399008586</v>
+        <v>4.872411076061155</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.68918479443789</v>
+        <v>5.864728637707117</v>
       </c>
       <c r="C22">
-        <v>4.039308397066748</v>
+        <v>1.790186130527673</v>
       </c>
       <c r="D22">
-        <v>0.4311146688281724</v>
+        <v>0.4962583381767303</v>
       </c>
       <c r="E22">
-        <v>0.07907436954101144</v>
+        <v>0.1339006545985804</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007159909302130974</v>
+        <v>0.002649532557401037</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.009945771122476188</v>
+        <v>0.03450289008358887</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.175368698723886</v>
+        <v>1.728586061915337</v>
       </c>
       <c r="N22">
-        <v>6.123009369180465</v>
+        <v>4.950852065045012</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.09205861258215</v>
+        <v>5.769951331109155</v>
       </c>
       <c r="C23">
-        <v>3.845270034141834</v>
+        <v>1.76011625281933</v>
       </c>
       <c r="D23">
-        <v>0.4152665343722362</v>
+        <v>0.4947893752182893</v>
       </c>
       <c r="E23">
-        <v>0.076881934415578</v>
+        <v>0.1338458186935121</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007248703682877536</v>
+        <v>0.002653125200762111</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01001557130084496</v>
+        <v>0.03455436877564821</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.028944440454637</v>
+        <v>1.706722187228209</v>
       </c>
       <c r="N23">
-        <v>5.949925111625248</v>
+        <v>4.908937698001239</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.995229569924618</v>
+        <v>5.417894152255144</v>
       </c>
       <c r="C24">
-        <v>3.166390457756961</v>
+        <v>1.648400969985687</v>
       </c>
       <c r="D24">
-        <v>0.3602461118261999</v>
+        <v>0.4896686031496387</v>
       </c>
       <c r="E24">
-        <v>0.06935571575917265</v>
+        <v>0.1337361683394107</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007574090873935714</v>
+        <v>0.002667212632007323</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01028710657289356</v>
+        <v>0.03475754979122669</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.515957386404878</v>
+        <v>1.625909467883773</v>
       </c>
       <c r="N24">
-        <v>5.337721088760304</v>
+        <v>4.751243520150013</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.975451955103495</v>
+        <v>5.052396500170289</v>
       </c>
       <c r="C25">
-        <v>2.515952863343443</v>
+        <v>1.532367147651883</v>
       </c>
       <c r="D25">
-        <v>0.3084215173749385</v>
+        <v>0.4850794731755173</v>
       </c>
       <c r="E25">
-        <v>0.06242872756318363</v>
+        <v>0.133826021480548</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007912995075160196</v>
+        <v>0.002683447207246416</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0105955432990692</v>
+        <v>0.03499440164945966</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.023838683245486</v>
+        <v>1.542880034890302</v>
       </c>
       <c r="N25">
-        <v>4.741824211262042</v>
+        <v>4.583229783554913</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_145/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.795003759225949</v>
+        <v>6.620506404061473</v>
       </c>
       <c r="C2">
-        <v>1.450592490471536</v>
+        <v>2.081439599945782</v>
       </c>
       <c r="D2">
-        <v>0.4824921826647142</v>
+        <v>0.2745476593207457</v>
       </c>
       <c r="E2">
-        <v>0.1340698875187947</v>
+        <v>0.05802824565718545</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002696308362112216</v>
+        <v>0.0008159921918383248</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03518418398326428</v>
+        <v>0.01083661674941094</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.485175881493774</v>
+        <v>1.695099542424089</v>
       </c>
       <c r="N2">
-        <v>4.461129605684732</v>
+        <v>4.338908718249229</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.627622330456859</v>
+        <v>5.758540420689712</v>
       </c>
       <c r="C3">
-        <v>1.397368962143901</v>
+        <v>1.805753821610836</v>
       </c>
       <c r="D3">
-        <v>0.4812269856431186</v>
+        <v>0.2535092885656809</v>
       </c>
       <c r="E3">
-        <v>0.1343454290983743</v>
+        <v>0.05537046660861478</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002705597747148588</v>
+        <v>0.0008328332555936535</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03532249000028198</v>
+        <v>0.01100908261989986</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.448146701223109</v>
+        <v>1.486712979585306</v>
       </c>
       <c r="N3">
-        <v>4.379294358883243</v>
+        <v>4.081373088860886</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.52825048008998</v>
+        <v>5.250484629061248</v>
       </c>
       <c r="C4">
-        <v>1.365745384780325</v>
+        <v>1.643521981899198</v>
       </c>
       <c r="D4">
-        <v>0.480689273891528</v>
+        <v>0.2413484504046153</v>
       </c>
       <c r="E4">
-        <v>0.1345688355842167</v>
+        <v>0.05387048033509245</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00271158652076592</v>
+        <v>0.0008432941825723969</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03541221871037514</v>
+        <v>0.01111958526455492</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.426416080122152</v>
+        <v>1.364221723026873</v>
       </c>
       <c r="N4">
-        <v>4.329469525785044</v>
+        <v>3.9291705751628</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.488600355270364</v>
+        <v>5.047959029794185</v>
       </c>
       <c r="C5">
-        <v>1.353120391228799</v>
+        <v>1.578904960921363</v>
       </c>
       <c r="D5">
-        <v>0.480530062937234</v>
+        <v>0.2365595328485313</v>
       </c>
       <c r="E5">
-        <v>0.1346734897746735</v>
+        <v>0.05328888632102036</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002714098995526167</v>
+        <v>0.0008475958549807316</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03544999709572672</v>
+        <v>0.01116579259353045</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.41781095423562</v>
+        <v>1.315473460344165</v>
       </c>
       <c r="N5">
-        <v>4.309267987235984</v>
+        <v>3.868419838995806</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.48206719831677</v>
+        <v>5.014580609962138</v>
       </c>
       <c r="C6">
-        <v>1.351039732183096</v>
+        <v>1.568258262387701</v>
       </c>
       <c r="D6">
-        <v>0.4805072383162212</v>
+        <v>0.2357737821013046</v>
       </c>
       <c r="E6">
-        <v>0.1346916892156536</v>
+        <v>0.05319401185036199</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002714520547908529</v>
+        <v>0.0008483127104017633</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03545634356387417</v>
+        <v>0.01117353686335765</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.416397122536836</v>
+        <v>1.307443968015747</v>
       </c>
       <c r="N6">
-        <v>4.305919619300852</v>
+        <v>3.858403344778537</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.527712338126889</v>
+        <v>5.247736026314442</v>
       </c>
       <c r="C7">
-        <v>1.365574064143175</v>
+        <v>1.642644821509748</v>
       </c>
       <c r="D7">
-        <v>0.4806868844212033</v>
+        <v>0.2412832189793619</v>
       </c>
       <c r="E7">
-        <v>0.1345701918892992</v>
+        <v>0.05386252090915455</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002711620113030445</v>
+        <v>0.0008433520291968311</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03541272328508871</v>
+        <v>0.01112020364550137</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.426299018334149</v>
+        <v>1.363559806758261</v>
       </c>
       <c r="N7">
-        <v>4.329196670689839</v>
+        <v>3.928346379580489</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.73657830582124</v>
+        <v>6.31836819945255</v>
       </c>
       <c r="C8">
-        <v>1.432019635598351</v>
+        <v>1.984741441654023</v>
       </c>
       <c r="D8">
-        <v>0.4820061768687935</v>
+        <v>0.2671211827761226</v>
       </c>
       <c r="E8">
-        <v>0.1341536273455208</v>
+        <v>0.05708218279164434</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002699452373603709</v>
+        <v>0.000821779504931747</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03523087643617018</v>
+        <v>0.01089513754263471</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.472197973030859</v>
+        <v>1.621981356514951</v>
       </c>
       <c r="N8">
-        <v>4.432822883087908</v>
+        <v>4.248739639166644</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.173659256305768</v>
+        <v>8.631119897588064</v>
       </c>
       <c r="C9">
-        <v>1.570872777211321</v>
+        <v>2.726736900148751</v>
       </c>
       <c r="D9">
-        <v>0.486501578570028</v>
+        <v>0.3250933166192596</v>
       </c>
       <c r="E9">
-        <v>0.1337680673087327</v>
+        <v>0.06463557541222897</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00267783849818392</v>
+        <v>0.0007799666590314257</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03491223891863626</v>
+        <v>0.01048952261647162</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.570307319424032</v>
+        <v>2.183346219949414</v>
       </c>
       <c r="N9">
-        <v>4.639563630134944</v>
+        <v>4.935905263934444</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.51230353787787</v>
+        <v>10.54076216309568</v>
       </c>
       <c r="C10">
-        <v>1.678362692537519</v>
+        <v>3.342649811215722</v>
       </c>
       <c r="D10">
-        <v>0.4909843840962651</v>
+        <v>0.3744567977633153</v>
       </c>
       <c r="E10">
-        <v>0.1337494874012144</v>
+        <v>0.07128530743423411</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002663307861652375</v>
+        <v>0.0007487189622577467</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03470101781795343</v>
+        <v>0.01021220208719331</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.647511893106028</v>
+        <v>2.649233376288663</v>
       </c>
       <c r="N10">
-        <v>4.793872612221605</v>
+        <v>5.497646185530186</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.670338029825984</v>
+        <v>11.48056453261813</v>
       </c>
       <c r="C11">
-        <v>1.728510176648967</v>
+        <v>3.646894171663348</v>
       </c>
       <c r="D11">
-        <v>0.4932838311952281</v>
+        <v>0.3991141949348815</v>
       </c>
       <c r="E11">
-        <v>0.1337989303141001</v>
+        <v>0.07465781577840502</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00265698594928799</v>
+        <v>0.0007341292097142252</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03460984054731497</v>
+        <v>0.01009033998440323</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.683788719261287</v>
+        <v>2.87914646790351</v>
       </c>
       <c r="N11">
-        <v>4.864655525165972</v>
+        <v>5.772090914159833</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.73076813779835</v>
+        <v>11.84963964467056</v>
       </c>
       <c r="C12">
-        <v>1.747684160629262</v>
+        <v>3.766586728092932</v>
       </c>
       <c r="D12">
-        <v>0.4941923014936833</v>
+        <v>0.4088534785682612</v>
       </c>
       <c r="E12">
-        <v>0.1338260130399505</v>
+        <v>0.07599756789759837</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002654633088966148</v>
+        <v>0.0007285201230970177</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03457601556881862</v>
+        <v>0.01004480412500186</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.697695409855754</v>
+        <v>2.969540515122887</v>
       </c>
       <c r="N12">
-        <v>4.891548177457878</v>
+        <v>5.879495355236429</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.717727163815994</v>
+        <v>11.76950813403846</v>
       </c>
       <c r="C13">
-        <v>1.743546433772792</v>
+        <v>3.740589505132334</v>
       </c>
       <c r="D13">
-        <v>0.4939949636062408</v>
+        <v>0.4067364034875851</v>
       </c>
       <c r="E13">
-        <v>0.1338198079166375</v>
+        <v>0.07570599475736373</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00265513799622157</v>
+        <v>0.0007297324791746119</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03458326922966037</v>
+        <v>0.01005458389594338</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.694692767118909</v>
+        <v>2.94990985886831</v>
       </c>
       <c r="N13">
-        <v>4.885752349383324</v>
+        <v>5.856194453929561</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.675297833207992</v>
+        <v>11.5106436996648</v>
       </c>
       <c r="C14">
-        <v>1.730083913537896</v>
+        <v>3.656644466734349</v>
       </c>
       <c r="D14">
-        <v>0.4933578138528389</v>
+        <v>0.3999068047842798</v>
       </c>
       <c r="E14">
-        <v>0.1338009906792301</v>
+        <v>0.07476669489040333</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002656791555852989</v>
+        <v>0.0007336696447602625</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03460704370234957</v>
+        <v>0.01008658147695662</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.68492941646916</v>
+        <v>2.886511339889097</v>
       </c>
       <c r="N14">
-        <v>4.866866197305171</v>
+        <v>5.78085221659785</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.649385335413967</v>
+        <v>11.35390421130614</v>
       </c>
       <c r="C15">
-        <v>1.721861857974659</v>
+        <v>3.605845384153724</v>
       </c>
       <c r="D15">
-        <v>0.4929724626598642</v>
+        <v>0.395778843163896</v>
       </c>
       <c r="E15">
-        <v>0.1337905543251594</v>
+        <v>0.07419995205135521</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002657809752975945</v>
+        <v>0.0007360692318579582</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03462169754129896</v>
+        <v>0.01010626045524443</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.678971245575738</v>
+        <v>2.848137940448083</v>
       </c>
       <c r="N15">
-        <v>4.855309563932735</v>
+        <v>5.735182506103513</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.502056877434143</v>
+        <v>10.48100770040708</v>
       </c>
       <c r="C16">
-        <v>1.675110967261617</v>
+        <v>3.32333107986392</v>
       </c>
       <c r="D16">
-        <v>0.4908393713149337</v>
+        <v>0.3728963971888675</v>
       </c>
       <c r="E16">
-        <v>0.1337474240938015</v>
+        <v>0.07107289574513587</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002663726784313048</v>
+        <v>0.0007496625073778847</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03470707489772096</v>
+        <v>0.01022025162798368</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.645164651854401</v>
+        <v>2.634628347468649</v>
       </c>
       <c r="N16">
-        <v>4.78925895892155</v>
+        <v>5.480150784136583</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.412705077388523</v>
+        <v>9.965562980123764</v>
       </c>
       <c r="C17">
-        <v>1.646754071902421</v>
+        <v>3.156812502020728</v>
       </c>
       <c r="D17">
-        <v>0.48959764359536</v>
+        <v>0.3594756409745656</v>
       </c>
       <c r="E17">
-        <v>0.1337358173504626</v>
+        <v>0.06925141987524697</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002667430262297841</v>
+        <v>0.0007578866900377076</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03476070546715881</v>
+        <v>0.01029127307121325</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.624723747690794</v>
+        <v>2.508713745894241</v>
       </c>
       <c r="N17">
-        <v>4.748892419392917</v>
+        <v>5.329011426146849</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.36168642819905</v>
+        <v>9.675563675299145</v>
       </c>
       <c r="C18">
-        <v>1.630561293941639</v>
+        <v>3.063224046887171</v>
       </c>
       <c r="D18">
-        <v>0.4889079066673361</v>
+        <v>0.351957250048585</v>
       </c>
       <c r="E18">
-        <v>0.1337345886275472</v>
+        <v>0.06823552072239636</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002669587546062109</v>
+        <v>0.0007625839819507408</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03479201457549408</v>
+        <v>0.01033252672329787</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.613075298456309</v>
+        <v>2.437927687719295</v>
       </c>
       <c r="N18">
-        <v>4.725729641411334</v>
+        <v>5.243803235971313</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.344476258191889</v>
+        <v>9.578410049321633</v>
       </c>
       <c r="C19">
-        <v>1.625098718895686</v>
+        <v>3.031886335989839</v>
       </c>
       <c r="D19">
-        <v>0.4886785676341248</v>
+        <v>0.3494439569035563</v>
       </c>
       <c r="E19">
-        <v>0.1337351071388184</v>
+        <v>0.06789668450036501</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002670322636827328</v>
+        <v>0.0007641695087731654</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03480269480871812</v>
+        <v>0.01034656425350633</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.609149893029596</v>
+        <v>2.414222712486819</v>
       </c>
       <c r="N19">
-        <v>4.717896437567703</v>
+        <v>5.215229586440842</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.422177913364976</v>
+        <v>10.01974461416251</v>
       </c>
       <c r="C20">
-        <v>1.649760533491644</v>
+        <v>3.174305777525717</v>
       </c>
       <c r="D20">
-        <v>0.4897272927101426</v>
+        <v>0.3608829773515225</v>
       </c>
       <c r="E20">
-        <v>0.1337364889029935</v>
+        <v>0.06944195182006396</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002667033214151357</v>
+        <v>0.0007570148215642448</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.034754948591603</v>
+        <v>0.01028367098711946</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.62688845239046</v>
+        <v>2.521943502486977</v>
       </c>
       <c r="N20">
-        <v>4.753183784585644</v>
+        <v>5.344917346173361</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.687744349651211</v>
+        <v>11.58629193074637</v>
       </c>
       <c r="C21">
-        <v>1.734033145845842</v>
+        <v>3.681169695766187</v>
       </c>
       <c r="D21">
-        <v>0.4935439340005274</v>
+        <v>0.4019010918850654</v>
       </c>
       <c r="E21">
-        <v>0.1338062905911706</v>
+        <v>0.07504076794193182</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002656304752086981</v>
+        <v>0.0007325157818074069</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0346000415456178</v>
+        <v>0.01007716642943723</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.687792524559967</v>
+        <v>2.905035461672057</v>
       </c>
       <c r="N21">
-        <v>4.872411076061155</v>
+        <v>5.802880399008643</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.864728637707117</v>
+        <v>12.68918479443846</v>
       </c>
       <c r="C22">
-        <v>1.790186130527673</v>
+        <v>4.039308397068055</v>
       </c>
       <c r="D22">
-        <v>0.4962583381767303</v>
+        <v>0.4311146688280587</v>
       </c>
       <c r="E22">
-        <v>0.1339006545985804</v>
+        <v>0.07907436954105407</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002649532557401037</v>
+        <v>0.0007159909302250936</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03450289008358887</v>
+        <v>0.009945771122671587</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.728586061915337</v>
+        <v>3.175368698723872</v>
       </c>
       <c r="N22">
-        <v>4.950852065045012</v>
+        <v>6.123009369180579</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.769951331109155</v>
+        <v>12.09205861258215</v>
       </c>
       <c r="C23">
-        <v>1.76011625281933</v>
+        <v>3.845270034141663</v>
       </c>
       <c r="D23">
-        <v>0.4947893752182893</v>
+        <v>0.4152665343718667</v>
       </c>
       <c r="E23">
-        <v>0.1338458186935121</v>
+        <v>0.07688193441553182</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002653125200762111</v>
+        <v>0.0007248703684230584</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03455436877564821</v>
+        <v>0.01001557130070108</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.706722187228209</v>
+        <v>3.028944440454637</v>
       </c>
       <c r="N23">
-        <v>4.908937698001239</v>
+        <v>5.949925111625134</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.417894152255144</v>
+        <v>9.995229569924845</v>
       </c>
       <c r="C24">
-        <v>1.648400969985687</v>
+        <v>3.166390457757075</v>
       </c>
       <c r="D24">
-        <v>0.4896686031496387</v>
+        <v>0.3602461118261857</v>
       </c>
       <c r="E24">
-        <v>0.1337361683394107</v>
+        <v>0.06935571575915489</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002667212632007323</v>
+        <v>0.000757409087495417</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03475754979122669</v>
+        <v>0.01028710657246457</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.625909467883773</v>
+        <v>2.515957386404864</v>
       </c>
       <c r="N24">
-        <v>4.751243520150013</v>
+        <v>5.337721088760247</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.052396500170289</v>
+        <v>7.975451955103324</v>
       </c>
       <c r="C25">
-        <v>1.532367147651883</v>
+        <v>2.515952863343443</v>
       </c>
       <c r="D25">
-        <v>0.4850794731755173</v>
+        <v>0.3084215173747111</v>
       </c>
       <c r="E25">
-        <v>0.133826021480548</v>
+        <v>0.06242872756310902</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002683447207246416</v>
+        <v>0.0007912995077428153</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03499440164945966</v>
+        <v>0.01059554329912604</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.542880034890302</v>
+        <v>2.023838683245444</v>
       </c>
       <c r="N25">
-        <v>4.583229783554913</v>
+        <v>4.741824211261985</v>
       </c>
       <c r="O25">
         <v>0</v>
